--- a/test_data/cai/add_stuff_data.xlsx
+++ b/test_data/cai/add_stuff_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangcaiyan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangcaiyan/work/e2e-tes/test_data/cai/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="-2520" yWindow="-18800" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -399,6 +399,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -425,8 +433,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -704,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -736,13 +745,13 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H1" t="s">
@@ -825,16 +834,115 @@
       </c>
       <c r="AH1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+      <c r="V2">
+        <v>21</v>
+      </c>
+      <c r="W2">
+        <v>22</v>
+      </c>
+      <c r="X2">
+        <v>23</v>
+      </c>
+      <c r="Y2">
+        <v>24</v>
+      </c>
+      <c r="Z2">
+        <v>25</v>
+      </c>
+      <c r="AA2">
+        <v>26</v>
+      </c>
+      <c r="AB2">
+        <v>27</v>
+      </c>
+      <c r="AC2">
+        <v>28</v>
+      </c>
+      <c r="AD2">
+        <v>29</v>
+      </c>
+      <c r="AE2">
+        <v>30</v>
+      </c>
+      <c r="AF2">
+        <v>31</v>
+      </c>
+      <c r="AG2">
+        <v>32</v>
+      </c>
+      <c r="AH2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="中国,非中国" sqref="C2">
-      <formula1>"中国,非中国"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/test_data/cai/add_stuff_data.xlsx
+++ b/test_data/cai/add_stuff_data.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangcaiyan/work/e2e-tes/test_data/cai/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangcaiyan/work/e2e-test/test_data/cai/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-2520" yWindow="-18800" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="-200" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="添加员工校验" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,16 +28,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>国籍</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+  <si>
+    <t>工号0</t>
+    <rPh sb="0" eb="1">
+      <t>gong hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名1</t>
+    <rPh sb="0" eb="1">
+      <t>xing ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国籍2</t>
     <rPh sb="0" eb="1">
       <t>guo ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否雇员</t>
+    <t>证照号码3</t>
+    <rPh sb="0" eb="1">
+      <t>zheng zhao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hao ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期4</t>
+    <rPh sb="0" eb="1">
+      <t>chu sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别5</t>
+    <rPh sb="0" eb="1">
+      <t>xing bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职日期6</t>
+    <rPh sb="0" eb="1">
+      <t>ru zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门性质7</t>
+    <rPh sb="0" eb="1">
+      <t>bu men</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务／岗位8</t>
+    <rPh sb="0" eb="1">
+      <t>zhi wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gang wie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否雇员9</t>
     <rPh sb="0" eb="1">
       <t>shi fou</t>
     </rPh>
@@ -46,38 +118,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姓名</t>
-    <rPh sb="0" eb="1">
-      <t>xing ming</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <rPh sb="0" eb="1">
-      <t>xing bie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号</t>
-    <rPh sb="0" eb="1">
-      <t>gong hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证照号码</t>
-    <rPh sb="0" eb="1">
-      <t>zheng zhao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hao ma</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人股本投资额</t>
+    <t>个人股本投资额10</t>
     <rPh sb="0" eb="1">
       <t>ge ren gu ben</t>
     </rPh>
@@ -87,7 +128,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否残疾烈属孤老</t>
+    <t>是否残疾烈属孤老11</t>
     <rPh sb="0" eb="1">
       <t>shi fou</t>
     </rPh>
@@ -100,7 +141,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人员状态</t>
+    <t>人员状态12</t>
     <rPh sb="0" eb="1">
       <t>ren yuan</t>
     </rPh>
@@ -110,14 +151,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电话</t>
+    <t>电话13</t>
     <rPh sb="0" eb="1">
       <t>dian hua</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电子邮箱</t>
+    <t>电子邮箱14</t>
     <rPh sb="0" eb="1">
       <t>dian zi</t>
     </rPh>
@@ -127,7 +168,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联系地址</t>
+    <t>联系地址15</t>
     <rPh sb="0" eb="1">
       <t>lian xi</t>
     </rPh>
@@ -137,7 +178,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>户口类型</t>
+    <t>户口类型16</t>
     <rPh sb="0" eb="1">
       <t>hu kou</t>
     </rPh>
@@ -147,7 +188,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开户银行</t>
+    <t>开户银行17</t>
     <rPh sb="0" eb="1">
       <t>kai hu</t>
     </rPh>
@@ -157,7 +198,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>银行账户</t>
+    <t>银行账户18</t>
     <rPh sb="0" eb="1">
       <t>yin hang</t>
     </rPh>
@@ -167,37 +208,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部门性质</t>
-    <rPh sb="0" eb="1">
-      <t>bu men</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xing zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务／岗位</t>
-    <rPh sb="0" eb="1">
-      <t>zhi wu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gang wie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职日期</t>
-    <rPh sb="0" eb="1">
-      <t>ru zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ri qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人－医疗</t>
+    <t>基本工资19</t>
+    <rPh sb="0" eb="1">
+      <t>ji ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位工资20</t>
+    <rPh sb="0" eb="1">
+      <t>gang wei gong zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗保险缴纳基数21</t>
+    <rPh sb="0" eb="1">
+      <t>yi liao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiao na</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老保险缴纳基数22</t>
+    <rPh sb="0" eb="1">
+      <t>yang lao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiao na</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人－医疗23</t>
     <rPh sb="0" eb="1">
       <t>ge ren</t>
     </rPh>
@@ -207,7 +267,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人－养老</t>
+    <t>个人－养老24</t>
     <rPh sb="0" eb="1">
       <t>ge ren</t>
     </rPh>
@@ -217,7 +277,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人－失业</t>
+    <t>个人－失业25</t>
     <rPh sb="0" eb="1">
       <t>ge ren</t>
     </rPh>
@@ -227,7 +287,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司－医疗</t>
+    <t>公司－医疗26</t>
     <rPh sb="0" eb="1">
       <t>gong si</t>
     </rPh>
@@ -237,7 +297,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司－养老</t>
+    <t>公司－养老27</t>
     <rPh sb="0" eb="1">
       <t>gong si</t>
     </rPh>
@@ -247,7 +307,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司－失业</t>
+    <t>公司－失业28</t>
     <rPh sb="0" eb="1">
       <t>gong si</t>
     </rPh>
@@ -257,7 +317,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司－生育</t>
+    <t>公司－生育29</t>
     <rPh sb="0" eb="1">
       <t>gong si</t>
     </rPh>
@@ -267,7 +327,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司－工伤</t>
+    <t>公司－工伤30</t>
     <rPh sb="0" eb="1">
       <t>gong si</t>
     </rPh>
@@ -277,7 +337,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公积金公司缴纳金额</t>
+    <t>公积金缴纳基数31</t>
+    <rPh sb="0" eb="1">
+      <t>gong ji jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiao na</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金公司缴纳金额32</t>
     <rPh sb="0" eb="1">
       <t>gong ji jin</t>
     </rPh>
@@ -293,7 +369,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公积金个人缴纳金额</t>
+    <t>公积金个人缴纳金额33</t>
     <rPh sb="0" eb="1">
       <t>gong ji jin</t>
     </rPh>
@@ -309,78 +385,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出生日期</t>
-    <rPh sb="0" eb="1">
-      <t>chu sheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ri qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本工资</t>
-    <rPh sb="0" eb="1">
-      <t>ji ben</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gong zi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位工资</t>
-    <rPh sb="0" eb="1">
-      <t>gang wei gong zi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗保险缴纳基数</t>
-    <rPh sb="0" eb="1">
-      <t>yi liao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bao xian</t>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名为空</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>jiao na</t>
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国籍为空</t>
+    <rPh sb="0" eb="1">
+      <t>guo ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证为空</t>
+    <rPh sb="0" eb="1">
+      <t>shen fen z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否雇员为空</t>
+    <rPh sb="0" eb="1">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gu yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩</t>
+    <rPh sb="0" eb="1">
+      <t>cai se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艳</t>
+    <rPh sb="0" eb="1">
+      <t>yan li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <rPh sb="0" eb="1">
+      <t>zhong guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <rPh sb="0" eb="1">
+      <t>zhang sna</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一名员工</t>
+    <rPh sb="0" eb="1">
+      <t>tian jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi ming</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yuan gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一位员工</t>
+    <rPh sb="0" eb="1">
+      <t>di yi wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yuan gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非中国</t>
+    <rPh sb="0" eb="1">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhong guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12348</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12346</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二位员工－非雇员</t>
+    <rPh sb="0" eb="1">
+      <t>di er</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yuan gong</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>ji shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养老保险缴纳基数</t>
-    <rPh sb="0" eb="1">
-      <t>yang lao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bao xian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jiao na</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ji shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公积金缴纳基数</t>
-    <rPh sb="0" eb="1">
-      <t>gong ji jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jin</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jiao na</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ji shu</t>
-    </rPh>
+      <t>fei gu yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <rPh sb="0" eb="1">
+      <t>fou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -405,23 +582,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -429,13 +630,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -713,237 +932,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="31" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="31" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>27</v>
+      <c r="AI1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>9</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>11</v>
-      </c>
-      <c r="M2">
-        <v>12</v>
-      </c>
-      <c r="N2">
-        <v>13</v>
-      </c>
-      <c r="O2">
-        <v>14</v>
-      </c>
-      <c r="P2">
-        <v>15</v>
-      </c>
-      <c r="Q2">
-        <v>16</v>
-      </c>
-      <c r="R2">
-        <v>17</v>
-      </c>
-      <c r="S2">
-        <v>18</v>
-      </c>
-      <c r="T2">
-        <v>19</v>
-      </c>
-      <c r="U2">
-        <v>20</v>
-      </c>
-      <c r="V2">
-        <v>21</v>
-      </c>
-      <c r="W2">
-        <v>22</v>
-      </c>
-      <c r="X2">
-        <v>23</v>
-      </c>
-      <c r="Y2">
-        <v>24</v>
-      </c>
-      <c r="Z2">
-        <v>25</v>
-      </c>
-      <c r="AA2">
-        <v>26</v>
-      </c>
-      <c r="AB2">
-        <v>27</v>
-      </c>
-      <c r="AC2">
-        <v>28</v>
-      </c>
-      <c r="AD2">
-        <v>29</v>
-      </c>
-      <c r="AE2">
-        <v>30</v>
-      </c>
-      <c r="AF2">
-        <v>31</v>
-      </c>
-      <c r="AG2">
-        <v>32</v>
-      </c>
-      <c r="AH2">
-        <v>33</v>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 J7:J27">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C19">
+      <formula1>"中国,非中国"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H31">
+      <formula1>"管理部门,销售部门"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_data/cai/add_stuff_data.xlsx
+++ b/test_data/cai/add_stuff_data.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="添加员工校验" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="3" r:id="rId2"/>
+    <sheet name="身份证号重复" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>工号0</t>
     <rPh sb="0" eb="1">
@@ -392,13 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <rPh sb="0" eb="1">
-      <t>bei zhu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户名为空</t>
     <rPh sb="0" eb="1">
       <t>yong hu</t>
@@ -558,6 +551,65 @@
   </si>
   <si>
     <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <rPh sb="0" eb="1">
+      <t>zhang san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加员工成功</t>
+    <rPh sb="0" eb="1">
+      <t>tian jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan gong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证重复</t>
+    <rPh sb="0" eb="1">
+      <t>shen fen z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chong fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <rPh sb="0" eb="1">
+      <t>jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试场景</t>
+    <rPh sb="0" eb="1">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该身份证号/证件号已存在，请调整后保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">zhangsan </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangsan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +617,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -607,6 +659,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -622,7 +680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -645,16 +703,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -932,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -958,9 +1028,10 @@
     <col min="32" max="32" width="17.5" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="21.5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,94 +1135,97 @@
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
         <v>34</v>
       </c>
       <c r="AI2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
         <v>34</v>
       </c>
       <c r="AI3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
       </c>
       <c r="J4" t="s">
         <v>34</v>
       </c>
       <c r="AI4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
       </c>
       <c r="AI6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
         <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1175,13 +1249,188 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="32" max="32" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="D7" s="4"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
+      <formula1>"管理部门,销售部门"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7">
+      <formula1>"中国,非中国"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7 J2:J3">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_data/cai/add_stuff_data.xlsx
+++ b/test_data/cai/add_stuff_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="添加员工校验" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>工号0</t>
     <rPh sb="0" eb="1">
@@ -610,6 +610,36 @@
   </si>
   <si>
     <t>zhangsan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试场景33</t>
+    <rPh sb="0" eb="1">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果34</t>
+    <rPh sb="0" eb="1">
+      <t>jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一名雇员</t>
+    <rPh sb="0" eb="1">
+      <t>tian jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi ming</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu yuan</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +647,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -665,8 +695,27 @@
       <color theme="1"/>
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,6 +725,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,13 +773,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1004,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,6 +1201,7 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B2" s="6"/>
       <c r="C2" t="s">
         <v>41</v>
       </c>
@@ -1151,7 +1211,7 @@
       <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1159,13 +1219,14 @@
       <c r="B3" t="s">
         <v>39</v>
       </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1176,10 +1237,11 @@
       <c r="C4" t="s">
         <v>41</v>
       </c>
+      <c r="D4" s="7"/>
       <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AI4" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1193,7 +1255,8 @@
       <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="J5" s="7"/>
+      <c r="AI5" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1226,6 +1289,9 @@
       </c>
       <c r="J7" t="s">
         <v>51</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1251,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1366,10 +1432,10 @@
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">

--- a/test_data/cai/add_stuff_data.xlsx
+++ b/test_data/cai/add_stuff_data.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="添加员工校验" sheetId="1" r:id="rId1"/>
     <sheet name="身份证号重复" sheetId="3" r:id="rId2"/>
+    <sheet name="测试员工" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="88">
   <si>
     <t>工号0</t>
     <rPh sb="0" eb="1">
@@ -640,6 +641,114 @@
     <rPh sb="4" eb="5">
       <t>gu yuan</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yg001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海娟</t>
+    <rPh sb="0" eb="1">
+      <t>hai juan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>nü</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>yg002</t>
+  </si>
+  <si>
+    <t>海涛</t>
+    <rPh sb="0" eb="1">
+      <t>hai tao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8743456789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yg003</t>
+  </si>
+  <si>
+    <t>李雷</t>
+    <rPh sb="0" eb="1">
+      <t>li lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>534567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yg004</t>
+  </si>
+  <si>
+    <t>william</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>352123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非中国</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>yg005</t>
+  </si>
+  <si>
+    <t>李菲</t>
+    <rPh sb="0" eb="1">
+      <t>li fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78456789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职</t>
+  </si>
+  <si>
+    <t>yg006</t>
+  </si>
+  <si>
+    <t>罗钰</t>
+    <rPh sb="0" eb="1">
+      <t>luo yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4523456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +756,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -714,6 +826,18 @@
       <sz val="12"/>
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -770,10 +894,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -784,9 +909,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1063,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1499,4 +1643,549 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="12" t="str">
+        <f>IF(B2&lt;&gt;"","中国","")</f>
+        <v>中国</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="I2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="12" t="str">
+        <f>IF(B2&lt;&gt;"","是","")</f>
+        <v>是</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="14">
+        <v>40179</v>
+      </c>
+      <c r="T2" s="10">
+        <v>12</v>
+      </c>
+      <c r="U2" s="10">
+        <v>344</v>
+      </c>
+      <c r="V2" s="10">
+        <v>66</v>
+      </c>
+      <c r="W2" s="10">
+        <v>56</v>
+      </c>
+      <c r="X2" s="10">
+        <v>99</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10">
+        <v>123</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="12" t="str">
+        <f>IF(B3&lt;&gt;"","中国","")</f>
+        <v>中国</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="I3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="12" t="str">
+        <f>IF(B3&lt;&gt;"","是","")</f>
+        <v>是</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14">
+        <v>40180</v>
+      </c>
+      <c r="T3" s="10">
+        <v>13</v>
+      </c>
+      <c r="U3" s="10">
+        <v>345</v>
+      </c>
+      <c r="V3" s="10">
+        <v>67</v>
+      </c>
+      <c r="W3" s="10">
+        <v>9</v>
+      </c>
+      <c r="X3" s="10">
+        <v>100</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10">
+        <v>124</v>
+      </c>
+      <c r="AD3" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="12" t="str">
+        <f>IF(B4&lt;&gt;"","中国","")</f>
+        <v>中国</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="I4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="12" t="str">
+        <f>IF(B4&lt;&gt;"","是","")</f>
+        <v>是</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="14">
+        <v>40181</v>
+      </c>
+      <c r="T4" s="10">
+        <v>14</v>
+      </c>
+      <c r="U4" s="10">
+        <v>346</v>
+      </c>
+      <c r="V4" s="10">
+        <v>68</v>
+      </c>
+      <c r="W4" s="10">
+        <v>10</v>
+      </c>
+      <c r="X4" s="10">
+        <v>101</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>46</v>
+      </c>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10">
+        <v>125</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="I5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="14">
+        <v>40182</v>
+      </c>
+      <c r="T5" s="10">
+        <v>15</v>
+      </c>
+      <c r="U5" s="10">
+        <v>347</v>
+      </c>
+      <c r="V5" s="10">
+        <v>69</v>
+      </c>
+      <c r="W5" s="10">
+        <v>11</v>
+      </c>
+      <c r="X5" s="10">
+        <v>102</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>26</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10">
+        <v>126</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="12" t="str">
+        <f>IF(B6&lt;&gt;"","中国","")</f>
+        <v>中国</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="I6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="12" t="str">
+        <f>IF(B6&lt;&gt;"","是","")</f>
+        <v>是</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="14">
+        <v>40183</v>
+      </c>
+      <c r="T6" s="10">
+        <v>16</v>
+      </c>
+      <c r="U6" s="10">
+        <v>348</v>
+      </c>
+      <c r="V6" s="10">
+        <v>70</v>
+      </c>
+      <c r="W6" s="10">
+        <v>12</v>
+      </c>
+      <c r="X6" s="10">
+        <v>103</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>48</v>
+      </c>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10">
+        <v>127</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="12" t="str">
+        <f>IF(B7&lt;&gt;"","中国","")</f>
+        <v>中国</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="I7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="14">
+        <v>40184</v>
+      </c>
+      <c r="T7" s="10">
+        <v>17</v>
+      </c>
+      <c r="U7" s="10">
+        <v>349</v>
+      </c>
+      <c r="V7" s="10">
+        <v>71</v>
+      </c>
+      <c r="W7" s="10">
+        <v>13</v>
+      </c>
+      <c r="X7" s="10">
+        <v>104</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>49</v>
+      </c>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10">
+        <v>128</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J7">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N7">
+      <formula1>"农业,非农业"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I7">
+      <formula1>"正常,离职"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7">
+      <formula1>"中国,非中国"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H239">
+      <formula1>"管理部门,销售部门"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>